--- a/docs/Decodifiche/32_dec_comprensione_dichiarante.xlsx
+++ b/docs/Decodifiche/32_dec_comprensione_dichiarante.xlsx
@@ -132,7 +132,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,30 +140,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.0703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>

--- a/docs/Decodifiche/32_dec_comprensione_dichiarante.xlsx
+++ b/docs/Decodifiche/32_dec_comprensione_dichiarante.xlsx
@@ -41,64 +41,64 @@
     <t>9999-12-31 00:00:00.0</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Muto ma non sordo che non può scrivere</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Muto ma non sordo che non sa scrivere</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Muto ma non sordo che sa scrivere</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Persona che non conosce la lingua italiana</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Sordo ma non muto che non sa leggere</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Sordo ma non muto che sa leggere</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Sordomuto che non sa né leggere né scrivere</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>Sordomuto che sa leggere e scrivere</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Sordomuto che sa leggere ma non può scrivere</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>Sordomuto che sa leggere ma non sa scrivere</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Sordomuto che sa leggere ma non può scrivere</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Sordomuto che non sa né leggere né scrivere</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Persona che non conosce la lingua italiana</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Sordo ma non muto che sa leggere</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Sordo ma non muto che non sa leggere</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Muto ma non sordo che sa scrivere</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Muto ma non sordo che non sa scrivere</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Muto ma non sordo che non può scrivere</t>
   </si>
 </sst>
 </file>

--- a/docs/Decodifiche/32_dec_comprensione_dichiarante.xlsx
+++ b/docs/Decodifiche/32_dec_comprensione_dichiarante.xlsx
@@ -59,46 +59,46 @@
     <t>Muto ma non sordo che sa scrivere</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Sordo ma non muto che non sa leggere</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Sordo ma non muto che sa leggere</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Sordomuto che non sa né leggere né scrivere</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Sordomuto che sa leggere e scrivere</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Sordomuto che sa leggere ma non può scrivere</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sordomuto che sa leggere ma non sa scrivere</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>Persona che non conosce la lingua italiana</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Sordo ma non muto che non sa leggere</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Sordo ma non muto che sa leggere</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Sordomuto che non sa né leggere né scrivere</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Sordomuto che sa leggere e scrivere</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Sordomuto che sa leggere ma non può scrivere</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sordomuto che sa leggere ma non sa scrivere</t>
   </si>
 </sst>
 </file>
